--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,31 +684,111 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>60</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>40</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>12000</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>12000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>12000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>6000</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44918</v>
+        <v>45271</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44616</v>
+        <v>45267</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,29 +604,29 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>6000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45271</v>
+        <v>44616</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45267</v>
+        <v>44918</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45267</v>
+        <v>45274</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44616</v>
+        <v>45267</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,29 +684,29 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>6000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/bandeja 2 kilos</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>2</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44918</v>
+        <v>44616</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>6000</v>
@@ -789,6 +789,86 @@
         <v>3000</v>
       </c>
       <c r="T5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Frambuesa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44918</v>
+        <v>45275</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,31 +844,111 @@
         </is>
       </c>
       <c r="M6" t="n">
+        <v>60</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 2 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100101004</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Frambuesa</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>30</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>6000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>6000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>6000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/bandeja 2 kilos</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>3000</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>2</v>
       </c>
     </row>
